--- a/medicine/Handicap/Wheelmap.org/Wheelmap.org.xlsx
+++ b/medicine/Handicap/Wheelmap.org/Wheelmap.org.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Wheelmap.org est une carte interactive répertoriant les lieux publics accessibles pour les utilisateurs de fauteuils roulants, partout dans le monde. Elle a été initiée en 2010 par l'Allemand Raúl Krauthausen, un spécialiste en marketing et un entrepreneur social (avec Sozialhelden e.V. (de), une ONG située à Berlin). Un site internet existe, ainsi qu'une application pour iPhone et une application pour Android[1].
+Wheelmap.org est une carte interactive répertoriant les lieux publics accessibles pour les utilisateurs de fauteuils roulants, partout dans le monde. Elle a été initiée en 2010 par l'Allemand Raúl Krauthausen, un spécialiste en marketing et un entrepreneur social (avec Sozialhelden e.V. (de), une ONG située à Berlin). Un site internet existe, ainsi qu'une application pour iPhone et une application pour Android.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Source des données</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les données présentées sur le site proviennent de la base de données libre et collaborative OpenStreetMap. Le site permet également de contribuer à l'amélioration des données OpenStreetMap sur la thématique de l'accessibilité.
 </t>
@@ -543,9 +557,11 @@
           <t>Système Tricolore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un système de feux de circulation simples (tricolores) aident les visiteurs du site à organiser leur séjour en visualisant les lieux accessibles et ceux qui ne le sont pas[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un système de feux de circulation simples (tricolores) aident les visiteurs du site à organiser leur séjour en visualisant les lieux accessibles et ceux qui ne le sont pas. 
 Endroits non marqués (de couleur grise)  montre les endroits qui restent à évaluer, tout le monde peut participer à changer leur statut, à l'actualiser et ajouter des photos.
 </t>
         </is>
@@ -575,13 +591,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2010 INCA (Innovative and Creative Application) Award[3]
-2011 Vodafone's Smart Accessibility Award[4]
-2011 Werkstatt N - Prix (Conseil de Développement Durable- Allemagne)[5]
-2012 World Summit Award (section mobile-inclusion &amp; Empowerment)[6]
-2014 European Award for Social Entrepreneurship and Disability[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2010 INCA (Innovative and Creative Application) Award
+2011 Vodafone's Smart Accessibility Award
+2011 Werkstatt N - Prix (Conseil de Développement Durable- Allemagne)
+2012 World Summit Award (section mobile-inclusion &amp; Empowerment)
+2014 European Award for Social Entrepreneurship and Disability
 Sur les autres projets Wikimedia :
 Wheelmap.org, sur Wikimedia Commons
 </t>
